--- a/data/trans_orig/P79A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>41557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35587</v>
+        <v>36601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44269</v>
+        <v>44402</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9050305327670429</v>
+        <v>0.905030532767043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7750032979260871</v>
+        <v>0.7970918041276204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9640827378018391</v>
+        <v>0.9669836688405358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -762,19 +762,19 @@
         <v>49223</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43748</v>
+        <v>43561</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52708</v>
+        <v>52745</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.866673475976807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7702803385149816</v>
+        <v>0.7669785827596657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.928036310003475</v>
+        <v>0.928696548604827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -783,19 +783,19 @@
         <v>90780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84184</v>
+        <v>83687</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95933</v>
+        <v>95350</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8838211103945836</v>
+        <v>0.8838211103945833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8196020769510239</v>
+        <v>0.8147683129957966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9339890938950921</v>
+        <v>0.9283171374765896</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1649</v>
+        <v>1516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10331</v>
+        <v>9317</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09496946723295695</v>
+        <v>0.09496946723295693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03591726219816096</v>
+        <v>0.03301633115946417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.224996702073914</v>
+        <v>0.2029081958723796</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -833,19 +833,19 @@
         <v>7572</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4087</v>
+        <v>4050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13047</v>
+        <v>13234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.133326524023193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07196368999652504</v>
+        <v>0.07130345139517343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2297196614850184</v>
+        <v>0.2330214172403347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -854,19 +854,19 @@
         <v>11933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6780</v>
+        <v>7363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18529</v>
+        <v>19026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1161788896054166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06601090610490785</v>
+        <v>0.07168286252341045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1803979230489761</v>
+        <v>0.1852316870042038</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>84269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75405</v>
+        <v>76982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89261</v>
+        <v>90140</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8902139643870203</v>
+        <v>0.8902139643870205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7965745748478384</v>
+        <v>0.8132349137472668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.942952242374387</v>
+        <v>0.9522437258056825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -979,19 +979,19 @@
         <v>87392</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75385</v>
+        <v>75332</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93182</v>
+        <v>93049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8682962579901967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7489970916627954</v>
+        <v>0.7484722170979756</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.925822176248345</v>
+        <v>0.9244980531459501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>200</v>
@@ -1000,19 +1000,19 @@
         <v>171660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157823</v>
+        <v>158487</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180208</v>
+        <v>180304</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8789191825851701</v>
+        <v>0.87891918258517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8080721598851903</v>
+        <v>0.8114703808456118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9226863828656602</v>
+        <v>0.9231779996549411</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>10392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5400</v>
+        <v>4521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19256</v>
+        <v>17679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1097860356129796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05704775762561303</v>
+        <v>0.04775627419431773</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2034254251521616</v>
+        <v>0.1867650862527334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1050,19 +1050,19 @@
         <v>13256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7466</v>
+        <v>7599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25263</v>
+        <v>25316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1317037420098033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07417782375165509</v>
+        <v>0.07550194685404994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.251002908337205</v>
+        <v>0.2515277829020247</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1071,19 +1071,19 @@
         <v>23648</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15100</v>
+        <v>15004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37485</v>
+        <v>36821</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1210808174148298</v>
+        <v>0.1210808174148299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07731361713433971</v>
+        <v>0.07682200034505889</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1919278401148092</v>
+        <v>0.1885296191543879</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>41478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35728</v>
+        <v>34957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45333</v>
+        <v>45254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8596834645453501</v>
+        <v>0.8596834645453499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7405072513447409</v>
+        <v>0.7245336338861077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9395907062834598</v>
+        <v>0.9379489401707414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1196,19 +1196,19 @@
         <v>46686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36909</v>
+        <v>36918</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51066</v>
+        <v>51082</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8741420545563612</v>
+        <v>0.8741420545563611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6910686992091614</v>
+        <v>0.6912358269277714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9561457538766454</v>
+        <v>0.9564535455402172</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1217,19 +1217,19 @@
         <v>88164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77066</v>
+        <v>76789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94307</v>
+        <v>94096</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8672797586694696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7581034815736776</v>
+        <v>0.7553776706552082</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.927708210140634</v>
+        <v>0.9256333777010263</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>6770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2915</v>
+        <v>2994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12520</v>
+        <v>13291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.14031653545465</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0604092937165403</v>
+        <v>0.06205105982925856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2594927486552591</v>
+        <v>0.2754663661138922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1267,19 +1267,19 @@
         <v>6722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2342</v>
+        <v>2326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16499</v>
+        <v>16490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1258579454436389</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04385424612335475</v>
+        <v>0.04354645445978272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3089313007908388</v>
+        <v>0.3087641730722286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1288,19 +1288,19 @@
         <v>13492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7349</v>
+        <v>7560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24590</v>
+        <v>24867</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1327202413305304</v>
+        <v>0.1327202413305303</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07229178985936595</v>
+        <v>0.07436662229897374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2418965184263224</v>
+        <v>0.2446223293447919</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>88734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80617</v>
+        <v>80071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95163</v>
+        <v>95247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8461897617172986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7687845569504812</v>
+        <v>0.7635779728540085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9074973534041778</v>
+        <v>0.9082989106272629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>148</v>
@@ -1413,19 +1413,19 @@
         <v>113623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101793</v>
+        <v>102507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122253</v>
+        <v>122720</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7951103232244173</v>
+        <v>0.7951103232244174</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7123298848456413</v>
+        <v>0.7173230293904457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.855501541860006</v>
+        <v>0.858772265007738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -1434,19 +1434,19 @@
         <v>202357</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188897</v>
+        <v>188742</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213834</v>
+        <v>213916</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8167288902647943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7624055598894213</v>
+        <v>0.7617765152574851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8630523563797927</v>
+        <v>0.8633837084616469</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>16129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9700</v>
+        <v>9616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24246</v>
+        <v>24792</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1538102382827014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09250264659582215</v>
+        <v>0.09170108937273708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2312154430495178</v>
+        <v>0.2364220271459914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -1484,19 +1484,19 @@
         <v>29279</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20649</v>
+        <v>20182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41109</v>
+        <v>40395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2048896767755825</v>
+        <v>0.2048896767755826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.144498458139994</v>
+        <v>0.141227734992262</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2876701151543588</v>
+        <v>0.2826769706095542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1505,19 +1505,19 @@
         <v>45408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33931</v>
+        <v>33849</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58868</v>
+        <v>59023</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1832711097352057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1369476436202073</v>
+        <v>0.136616291538353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2375944401105789</v>
+        <v>0.2382234847425147</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>256037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244093</v>
+        <v>241673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>267246</v>
+        <v>265767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8717959495910227</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8311285043321256</v>
+        <v>0.8228874748367311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9099621338174613</v>
+        <v>0.9049259872437935</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>393</v>
@@ -1630,19 +1630,19 @@
         <v>296924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>279275</v>
+        <v>279391</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>308944</v>
+        <v>310457</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8393540425330274</v>
+        <v>0.8393540425330273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7894626004053595</v>
+        <v>0.7897923594971228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8733317902460598</v>
+        <v>0.8776092401261155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>643</v>
@@ -1651,19 +1651,19 @@
         <v>552961</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>532919</v>
+        <v>532240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>570540</v>
+        <v>571478</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8540701592290861</v>
+        <v>0.8540701592290864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8231148769064192</v>
+        <v>0.8220652992726727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.881222064258823</v>
+        <v>0.8826707445561311</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>37652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26443</v>
+        <v>27922</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49596</v>
+        <v>52016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282040504089773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09003786618253877</v>
+        <v>0.09507401275620647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1688714956678741</v>
+        <v>0.1771125251632686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1701,19 +1701,19 @@
         <v>56829</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44809</v>
+        <v>43296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74478</v>
+        <v>74362</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1606459574669726</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1266682097539403</v>
+        <v>0.1223907598738845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2105373995946406</v>
+        <v>0.210207640502877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1722,19 +1722,19 @@
         <v>94481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76902</v>
+        <v>75964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>114523</v>
+        <v>115202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1459298407709138</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.118777935741177</v>
+        <v>0.117329255443869</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1768851230935809</v>
+        <v>0.1779347007273273</v>
       </c>
     </row>
     <row r="18">
